--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124908.1522349731</v>
+        <v>138634.5103723911</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471083.8947622971</v>
+        <v>471083.894762297</v>
       </c>
       <c r="C2" t="n">
         <v>471083.894762297</v>
       </c>
       <c r="D2" t="n">
-        <v>471083.8947622971</v>
+        <v>471083.894762297</v>
       </c>
       <c r="E2" t="n">
         <v>58202.77436820342</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30159.66516943416</v>
+        <v>-30159.66516943424</v>
       </c>
       <c r="C6" t="n">
-        <v>-30159.66516943421</v>
+        <v>-30159.66516943418</v>
       </c>
       <c r="D6" t="n">
-        <v>-30159.66516943416</v>
+        <v>-30159.66516943418</v>
       </c>
       <c r="E6" t="n">
-        <v>-78508.8377368049</v>
+        <v>-78508.83773680496</v>
       </c>
       <c r="F6" t="n">
         <v>54591.1622631951</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138634.5103723911</v>
+        <v>36911.23710688864</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>12385827.93666256</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21607827.340757</v>
+        <v>20516888.02051047</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3810310.103021985</v>
+        <v>4403531.157492313</v>
       </c>
     </row>
     <row r="11">
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8938,19 +8938,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9576,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10761,10 +10761,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -10995,13 +10995,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11226,19 +11226,19 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11466,16 +11466,16 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23281,13 +23281,13 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>113.4004983079896</v>
@@ -23296,16 +23296,16 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
         <v>193.8433399116564</v>
@@ -23357,13 +23357,13 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>61.18167021676314</v>
@@ -23381,10 +23381,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
         <v>165.0641745378389</v>
@@ -23439,10 +23439,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>90.4687457914608</v>
@@ -23460,7 +23460,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
         <v>163.8605191622716</v>
@@ -23518,7 +23518,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>135.370731907559</v>
@@ -23530,19 +23530,19 @@
         <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
         <v>193.8433399116564</v>
@@ -23594,13 +23594,13 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>61.18167021676314</v>
@@ -23618,10 +23618,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
         <v>165.0641745378389</v>
@@ -23676,7 +23676,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
         <v>94.30397654773019</v>
@@ -23697,7 +23697,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
         <v>163.8605191622716</v>
@@ -23779,7 +23779,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
         <v>193.8433399116564</v>
@@ -23831,13 +23831,13 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>61.18167021676314</v>
@@ -23852,13 +23852,13 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
         <v>165.0641745378389</v>
@@ -23913,28 +23913,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
         <v>163.8605191622716</v>
@@ -23992,31 +23992,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
         <v>193.8433399116564</v>
@@ -24068,13 +24068,13 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>61.18167021676314</v>
@@ -24092,10 +24092,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
         <v>165.0641745378389</v>
@@ -24150,13 +24150,13 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
         <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>92.09541281912071</v>
@@ -24168,10 +24168,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
         <v>163.8605191622716</v>
@@ -24253,7 +24253,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
         <v>193.8433399116564</v>
@@ -24305,7 +24305,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
         <v>93.17061249236157</v>
@@ -24387,16 +24387,16 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
         <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>81.96869489115805</v>
@@ -24405,10 +24405,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24475,7 +24475,7 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>110.5750244233121</v>
@@ -24490,7 +24490,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
         <v>193.8433399116564</v>
@@ -24542,10 +24542,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>80.29914934735042</v>
@@ -24566,10 +24566,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
         <v>165.0641745378389</v>
@@ -24624,10 +24624,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>90.4687457914608</v>
@@ -24645,7 +24645,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
         <v>163.8605191622716</v>
@@ -24964,7 +24964,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
         <v>193.8433399116564</v>
@@ -25016,10 +25016,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>80.29914934735042</v>
@@ -25043,7 +25043,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
         <v>165.0641745378389</v>
@@ -25098,7 +25098,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J34" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
         <v>94.30397654773019</v>
@@ -25116,10 +25116,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
         <v>163.8605191622716</v>
@@ -25177,7 +25177,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>135.370731907559</v>
@@ -25198,10 +25198,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
         <v>193.8433399116564</v>
@@ -25253,10 +25253,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>80.29914934735042</v>
@@ -25280,7 +25280,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
         <v>165.0641745378389</v>
@@ -25335,7 +25335,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
         <v>94.30397654773019</v>
@@ -25353,10 +25353,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
         <v>163.8605191622716</v>
@@ -25438,7 +25438,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
         <v>193.8433399116564</v>
@@ -25490,10 +25490,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>80.29914934735042</v>
@@ -25514,10 +25514,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
         <v>165.0641745378389</v>
@@ -25572,7 +25572,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
         <v>94.30397654773019</v>
@@ -25587,13 +25587,13 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
         <v>163.8605191622716</v>
@@ -25675,7 +25675,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
         <v>193.8433399116564</v>
@@ -25727,10 +25727,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>80.29914934735042</v>
@@ -25751,10 +25751,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
         <v>165.0641745378389</v>
@@ -25809,7 +25809,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
         <v>94.30397654773019</v>
@@ -25818,19 +25818,19 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
         <v>163.8605191622716</v>
@@ -25912,7 +25912,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25964,10 +25964,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>80.29914934735042</v>
@@ -25988,10 +25988,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
         <v>165.0641745378389</v>
@@ -26046,7 +26046,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
         <v>94.30397654773019</v>
@@ -26058,16 +26058,16 @@
         <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
         <v>163.8605191622716</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>118936.10414372</v>
+        <v>253894.9223127776</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>118936.10414372</v>
+        <v>227912.5498543362</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>118936.10414372</v>
+        <v>177648.3762948624</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>118936.10414372</v>
+        <v>287596.3721657341</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>118936.10414372</v>
+        <v>145304.9599321548</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>118936.10414372</v>
+        <v>170789.0858763436</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118936.10414372</v>
+        <v>147965.7079415192</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>118936.10414372</v>
+        <v>186806.7547835367</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>118936.10414372</v>
+        <v>159176.7342687462</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>118936.10414372</v>
+        <v>163099.9988548407</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>118936.10414372</v>
+        <v>162668.6006711095</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471083.894762297</v>
+        <v>471083.8947622971</v>
       </c>
       <c r="C2" t="n">
-        <v>471083.894762297</v>
+        <v>471083.8947622971</v>
       </c>
       <c r="D2" t="n">
         <v>471083.894762297</v>
       </c>
       <c r="E2" t="n">
-        <v>58202.77436820342</v>
+        <v>101921.8281412785</v>
       </c>
       <c r="F2" t="n">
-        <v>58202.77436820342</v>
+        <v>93505.00326037491</v>
       </c>
       <c r="G2" t="n">
-        <v>58202.77436820342</v>
+        <v>77222.24281153125</v>
       </c>
       <c r="H2" t="n">
-        <v>58202.77436820342</v>
+        <v>112839.1992204052</v>
       </c>
       <c r="I2" t="n">
-        <v>58202.77436820342</v>
+        <v>66744.79807431612</v>
       </c>
       <c r="J2" t="n">
-        <v>58202.77436820342</v>
+        <v>75000.219154828</v>
       </c>
       <c r="K2" t="n">
         <v>58202.77436820342</v>
       </c>
       <c r="L2" t="n">
-        <v>58202.77436820342</v>
+        <v>67606.73052805387</v>
       </c>
       <c r="M2" t="n">
-        <v>58202.77436820342</v>
+        <v>80189.04147687649</v>
       </c>
       <c r="N2" t="n">
-        <v>58202.77436820342</v>
+        <v>71238.47145095837</v>
       </c>
       <c r="O2" t="n">
-        <v>58202.77436820342</v>
+        <v>72509.38814786224</v>
       </c>
       <c r="P2" t="n">
-        <v>58202.77436820342</v>
+        <v>72369.63944045635</v>
       </c>
     </row>
     <row r="3">
@@ -26426,40 +26426,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>45619.88219799133</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>36837.10840922242</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19846.40185390731</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>57011.92158490619</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>8913.416041161083</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17527.76847299957</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>9812.82381897439</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>22942.19176557189</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>13602.4665211356</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>14928.64046573094</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>14782.81572756828</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30159.66516943424</v>
+        <v>-30203.80094811524</v>
       </c>
       <c r="C6" t="n">
-        <v>-30159.66516943418</v>
+        <v>-30203.80094811524</v>
       </c>
       <c r="D6" t="n">
-        <v>-30159.66516943418</v>
+        <v>-30203.80094811536</v>
       </c>
       <c r="E6" t="n">
-        <v>-78508.83773680496</v>
+        <v>-96504.32657609883</v>
       </c>
       <c r="F6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.67342390121</v>
       </c>
       <c r="G6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.6734239012</v>
       </c>
       <c r="H6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.67342390121</v>
       </c>
       <c r="I6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.6734239012</v>
       </c>
       <c r="J6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.67342390119</v>
       </c>
       <c r="K6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.6734239012</v>
       </c>
       <c r="L6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.6734239012</v>
       </c>
       <c r="M6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.67342390121</v>
       </c>
       <c r="N6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.6734239012</v>
       </c>
       <c r="O6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.67342390119</v>
       </c>
       <c r="P6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.67342390119</v>
       </c>
     </row>
   </sheetData>
